--- a/Analyzed/try2/data_2021.xlsx
+++ b/Analyzed/try2/data_2021.xlsx
@@ -541,13 +541,13 @@
         <v>2065.898</v>
       </c>
       <c r="L2">
-        <v>73.90000000000001</v>
+        <v>2586.5</v>
       </c>
       <c r="M2">
         <v>66.88270418570877</v>
       </c>
       <c r="N2">
-        <v>69.48999999999999</v>
+        <v>2015.21</v>
       </c>
       <c r="O2">
         <v>1031.51</v>
@@ -592,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="AC2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -632,13 +632,13 @@
         <v>1125.852</v>
       </c>
       <c r="L3">
-        <v>75.10000000000001</v>
+        <v>2628.5</v>
       </c>
       <c r="M3">
         <v>58.25770455705938</v>
       </c>
       <c r="N3">
-        <v>40.54</v>
+        <v>1175.66</v>
       </c>
       <c r="O3">
         <v>1322.59</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z3">
         <v>3</v>
@@ -683,7 +683,7 @@
         <v>2</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -723,13 +723,13 @@
         <v>1120.112</v>
       </c>
       <c r="L4">
-        <v>73.7</v>
+        <v>2579.5</v>
       </c>
       <c r="M4">
         <v>59.09850848407213</v>
       </c>
       <c r="N4">
-        <v>45.13</v>
+        <v>1308.77</v>
       </c>
       <c r="O4">
         <v>1184.03</v>
@@ -765,7 +765,7 @@
         <v>3</v>
       </c>
       <c r="Z4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA4">
         <v>4</v>
@@ -774,7 +774,7 @@
         <v>3</v>
       </c>
       <c r="AC4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -814,13 +814,13 @@
         <v>1703.601</v>
       </c>
       <c r="L5">
-        <v>69.7</v>
+        <v>2439.5</v>
       </c>
       <c r="M5">
         <v>70.15091713175745</v>
       </c>
       <c r="N5">
-        <v>83.76000000000001</v>
+        <v>2429.04</v>
       </c>
       <c r="O5">
         <v>1377.19</v>
@@ -865,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AC5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -905,13 +905,13 @@
         <v>2015.537</v>
       </c>
       <c r="L6">
-        <v>69.60000000000001</v>
+        <v>2436</v>
       </c>
       <c r="M6">
         <v>76.64555051869119</v>
       </c>
       <c r="N6">
-        <v>48.18000000000001</v>
+        <v>1397.22</v>
       </c>
       <c r="O6">
         <v>1344.44</v>
@@ -944,10 +944,10 @@
         <v>3</v>
       </c>
       <c r="Y6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <v>3</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -996,13 +996,13 @@
         <v>1438.791</v>
       </c>
       <c r="L7">
-        <v>76.5</v>
+        <v>2677.5</v>
       </c>
       <c r="M7">
         <v>63.74987152920207</v>
       </c>
       <c r="N7">
-        <v>15.02</v>
+        <v>435.5799999999999</v>
       </c>
       <c r="O7">
         <v>1413.61</v>
@@ -1035,10 +1035,10 @@
         <v>1</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA7">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="AC7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1087,13 +1087,13 @@
         <v>1565.958</v>
       </c>
       <c r="L8">
-        <v>71.2</v>
+        <v>2492</v>
       </c>
       <c r="M8">
         <v>74.34804259971348</v>
       </c>
       <c r="N8">
-        <v>40.87</v>
+        <v>1185.23</v>
       </c>
       <c r="O8">
         <v>1309.6</v>
@@ -1126,10 +1126,10 @@
         <v>1</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>5</v>
@@ -1178,13 +1178,13 @@
         <v>1437.886</v>
       </c>
       <c r="L9">
-        <v>72.10000000000001</v>
+        <v>2523.5</v>
       </c>
       <c r="M9">
         <v>68.6310038571937</v>
       </c>
       <c r="N9">
-        <v>49.83</v>
+        <v>1445.07</v>
       </c>
       <c r="O9">
         <v>1688.14</v>
@@ -1220,7 +1220,7 @@
         <v>5</v>
       </c>
       <c r="Z9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA9">
         <v>5</v>
@@ -1229,7 +1229,7 @@
         <v>5</v>
       </c>
       <c r="AC9">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1269,13 +1269,13 @@
         <v>1758.489</v>
       </c>
       <c r="L10">
-        <v>58.3</v>
+        <v>2040.5</v>
       </c>
       <c r="M10">
         <v>81.83569657499832</v>
       </c>
       <c r="N10">
-        <v>-0.6200000000000039</v>
+        <v>-17.98000000000011</v>
       </c>
       <c r="O10">
         <v>1366.39</v>
@@ -1360,13 +1360,13 @@
         <v>1378.368</v>
       </c>
       <c r="L11">
-        <v>60.3</v>
+        <v>2110.5</v>
       </c>
       <c r="M11">
         <v>97.45282434929912</v>
       </c>
       <c r="N11">
-        <v>17.86000000000001</v>
+        <v>517.9400000000002</v>
       </c>
       <c r="O11">
         <v>1503</v>
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA11">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="AC11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
